--- a/Java Scrum Report.xlsx
+++ b/Java Scrum Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poker\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DF15F-06CA-4A99-B0E7-7D7876A9918A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB8FFD-E76C-4E8E-8E1C-57FD2C9350CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
+  <si>
+    <t>Java Scrum Shenaniganery</t>
+  </si>
   <si>
     <t>Milestone 1</t>
   </si>
@@ -63,7 +66,7 @@
     <t>Max Weber</t>
   </si>
   <si>
-    <t>Working on it</t>
+    <t>Done</t>
   </si>
   <si>
     <t>Design Report</t>
@@ -84,9 +87,6 @@
     <t>Scrum Stuff</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Design Documentation</t>
   </si>
   <si>
@@ -102,13 +102,10 @@
     <t>User Class</t>
   </si>
   <si>
-    <t>User Database</t>
-  </si>
-  <si>
-    <t>User Business Service</t>
-  </si>
-  <si>
-    <t>User Database Service</t>
+    <t>User Model</t>
+  </si>
+  <si>
+    <t>User Controller</t>
   </si>
   <si>
     <t>2021-02-14</t>
@@ -117,6 +114,9 @@
     <t>Milestone 2 Sprint 2</t>
   </si>
   <si>
+    <t>User Database?</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Additional refactoring</t>
-  </si>
-  <si>
-    <t>Java Scrum</t>
   </si>
 </sst>
 </file>
@@ -214,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -275,12 +272,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,12 +282,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFA25DDC"/>
-      <name val="Arial"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -318,6 +303,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF66CCFF"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -364,7 +355,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,11 +384,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDAB3D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00C875"/>
       </patternFill>
     </fill>
@@ -412,27 +398,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFE99729"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFE99729"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFE99729"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFE99729"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -504,23 +475,23 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -538,9 +509,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,7 +872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -918,46 +888,46 @@
   <sheetData>
     <row r="1" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9">
         <v>2</v>
@@ -968,16 +938,16 @@
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
@@ -988,117 +958,117 @@
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12">
         <f>SUM(E4:E9)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,13 +1076,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="9">
         <v>2</v>
@@ -1126,13 +1096,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="9">
         <v>0.5</v>
@@ -1146,16 +1116,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
         <v>44241</v>
@@ -1166,13 +1136,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -1182,70 +1152,70 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12">
+        <f>SUM(E14:E17)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
+    </row>
+    <row r="19" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="8">
         <v>44241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="13">
-        <f>SUM(E14:E18)</f>
-        <v>5</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,13 +1223,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>8</v>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E23" s="9">
         <v>2</v>
@@ -1273,13 +1243,13 @@
         <v>30</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>8</v>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
@@ -1290,16 +1260,16 @@
     </row>
     <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="E25" s="9">
         <v>1</v>
@@ -1310,49 +1280,49 @@
     </row>
     <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="13">
-        <f>SUM(E23:E25)</f>
-        <v>5</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="12">
+        <f>SUM(E22:E25)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,13 +1330,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E30" s="9">
         <v>2</v>
@@ -1380,13 +1350,13 @@
         <v>34</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="9">
         <v>2</v>
@@ -1400,13 +1370,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="9">
         <v>2</v>
@@ -1417,49 +1387,49 @@
     </row>
     <row r="33" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="13">
+        <v>9</v>
+      </c>
+      <c r="E33" s="12">
         <f>SUM(E30:E32)</f>
         <v>6</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,10 +1440,10 @@
         <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E37" s="9">
         <v>3</v>
@@ -1484,41 +1454,41 @@
     </row>
     <row r="38" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="C38" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
@@ -1526,59 +1496,59 @@
       <c r="C40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>8</v>
+      <c r="D40" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="E43" s="9">
         <v>1</v>
@@ -1589,49 +1559,49 @@
     </row>
     <row r="44" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="13">
+        <v>9</v>
+      </c>
+      <c r="E44" s="12">
         <f>SUM(E37:E43)</f>
         <v>4</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,66 +1609,66 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E48" s="9">
         <v>4</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="13">
+        <v>9</v>
+      </c>
+      <c r="E49" s="12">
         <f>SUM(E48:E48)</f>
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,86 +1676,86 @@
         <v>47</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E53" s="9">
         <v>4</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="13">
+        <v>9</v>
+      </c>
+      <c r="E55" s="12">
         <f>SUM(E53:E54)</f>
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,66 +1763,66 @@
         <v>49</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E59" s="9">
         <v>6</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="13">
+        <v>9</v>
+      </c>
+      <c r="E60" s="12">
         <f>SUM(E59:E59)</f>
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,86 +1830,86 @@
         <v>51</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E64" s="9">
         <v>6</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E65" s="9">
         <v>1</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="13">
+        <v>9</v>
+      </c>
+      <c r="E66" s="12">
         <f>SUM(E64:E65)</f>
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,66 +1917,66 @@
         <v>53</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E70" s="9">
         <v>4</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="13">
+        <v>9</v>
+      </c>
+      <c r="E71" s="12">
         <f>SUM(E70:E70)</f>
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2014,19 +1984,19 @@
         <v>55</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E75" s="9">
         <v>0.5</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2034,60 +2004,60 @@
         <v>56</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E76" s="9">
         <v>6</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E77" s="9">
         <v>1</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="13">
+        <v>9</v>
+      </c>
+      <c r="E78" s="12">
         <f>SUM(E75:E77)</f>
         <v>7.5</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
